--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_242.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_242.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g32107-d76180-Reviews-Embassy_Suites_by_Hilton_Brea_North_Orange_County-Brea_California.html</t>
+  </si>
+  <si>
+    <t>908</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>932</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Orange-County-Hotels-Embassy-Suites-By-Hilton-Brea-North-Orange-County.h24262.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_242.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_242.xlsx
@@ -11570,7 +11570,7 @@
         <v>27174</v>
       </c>
       <c r="B2" t="n">
-        <v>144073</v>
+        <v>175328</v>
       </c>
       <c r="C2" t="s">
         <v>44</v>
@@ -11637,7 +11637,7 @@
         <v>27174</v>
       </c>
       <c r="B3" t="n">
-        <v>144074</v>
+        <v>175329</v>
       </c>
       <c r="C3" t="s">
         <v>56</v>
@@ -11708,7 +11708,7 @@
         <v>27174</v>
       </c>
       <c r="B4" t="n">
-        <v>144075</v>
+        <v>175330</v>
       </c>
       <c r="C4" t="s">
         <v>63</v>
@@ -11769,7 +11769,7 @@
         <v>27174</v>
       </c>
       <c r="B5" t="n">
-        <v>144076</v>
+        <v>175331</v>
       </c>
       <c r="C5" t="s">
         <v>70</v>
@@ -11836,7 +11836,7 @@
         <v>27174</v>
       </c>
       <c r="B6" t="n">
-        <v>144077</v>
+        <v>175332</v>
       </c>
       <c r="C6" t="s">
         <v>78</v>
@@ -11907,7 +11907,7 @@
         <v>27174</v>
       </c>
       <c r="B7" t="n">
-        <v>144078</v>
+        <v>175333</v>
       </c>
       <c r="C7" t="s">
         <v>84</v>
@@ -11978,7 +11978,7 @@
         <v>27174</v>
       </c>
       <c r="B8" t="n">
-        <v>144079</v>
+        <v>175334</v>
       </c>
       <c r="C8" t="s">
         <v>89</v>
@@ -12049,7 +12049,7 @@
         <v>27174</v>
       </c>
       <c r="B9" t="n">
-        <v>144080</v>
+        <v>175335</v>
       </c>
       <c r="C9" t="s">
         <v>95</v>
@@ -12120,7 +12120,7 @@
         <v>27174</v>
       </c>
       <c r="B10" t="n">
-        <v>144081</v>
+        <v>175336</v>
       </c>
       <c r="C10" t="s">
         <v>102</v>
@@ -12191,7 +12191,7 @@
         <v>27174</v>
       </c>
       <c r="B11" t="n">
-        <v>144082</v>
+        <v>175337</v>
       </c>
       <c r="C11" t="s">
         <v>108</v>
@@ -12262,7 +12262,7 @@
         <v>27174</v>
       </c>
       <c r="B12" t="n">
-        <v>144083</v>
+        <v>175338</v>
       </c>
       <c r="C12" t="s">
         <v>114</v>
@@ -12327,7 +12327,7 @@
         <v>27174</v>
       </c>
       <c r="B13" t="n">
-        <v>144084</v>
+        <v>175339</v>
       </c>
       <c r="C13" t="s">
         <v>123</v>
@@ -12463,7 +12463,7 @@
         <v>27174</v>
       </c>
       <c r="B15" t="n">
-        <v>144085</v>
+        <v>175340</v>
       </c>
       <c r="C15" t="s">
         <v>139</v>
@@ -12585,7 +12585,7 @@
         <v>27174</v>
       </c>
       <c r="B17" t="n">
-        <v>144086</v>
+        <v>175341</v>
       </c>
       <c r="C17" t="s">
         <v>153</v>
@@ -12650,7 +12650,7 @@
         <v>27174</v>
       </c>
       <c r="B18" t="n">
-        <v>144087</v>
+        <v>175342</v>
       </c>
       <c r="C18" t="s">
         <v>160</v>
@@ -12788,7 +12788,7 @@
         <v>27174</v>
       </c>
       <c r="B20" t="n">
-        <v>144088</v>
+        <v>175343</v>
       </c>
       <c r="C20" t="s">
         <v>174</v>
@@ -12859,7 +12859,7 @@
         <v>27174</v>
       </c>
       <c r="B21" t="n">
-        <v>144089</v>
+        <v>175344</v>
       </c>
       <c r="C21" t="s">
         <v>181</v>
@@ -12930,7 +12930,7 @@
         <v>27174</v>
       </c>
       <c r="B22" t="n">
-        <v>144090</v>
+        <v>175345</v>
       </c>
       <c r="C22" t="s">
         <v>186</v>
@@ -13001,7 +13001,7 @@
         <v>27174</v>
       </c>
       <c r="B23" t="n">
-        <v>144091</v>
+        <v>175346</v>
       </c>
       <c r="C23" t="s">
         <v>192</v>
@@ -13072,7 +13072,7 @@
         <v>27174</v>
       </c>
       <c r="B24" t="n">
-        <v>144092</v>
+        <v>175347</v>
       </c>
       <c r="C24" t="s">
         <v>199</v>
@@ -13210,7 +13210,7 @@
         <v>27174</v>
       </c>
       <c r="B26" t="n">
-        <v>144093</v>
+        <v>175348</v>
       </c>
       <c r="C26" t="s">
         <v>211</v>
@@ -13281,7 +13281,7 @@
         <v>27174</v>
       </c>
       <c r="B27" t="n">
-        <v>144094</v>
+        <v>175349</v>
       </c>
       <c r="C27" t="s">
         <v>217</v>
@@ -13352,7 +13352,7 @@
         <v>27174</v>
       </c>
       <c r="B28" t="n">
-        <v>144095</v>
+        <v>175350</v>
       </c>
       <c r="C28" t="s">
         <v>224</v>
@@ -13423,7 +13423,7 @@
         <v>27174</v>
       </c>
       <c r="B29" t="n">
-        <v>144096</v>
+        <v>175351</v>
       </c>
       <c r="C29" t="s">
         <v>230</v>
@@ -13555,7 +13555,7 @@
         <v>27174</v>
       </c>
       <c r="B31" t="n">
-        <v>144097</v>
+        <v>175352</v>
       </c>
       <c r="C31" t="s">
         <v>241</v>
@@ -13693,7 +13693,7 @@
         <v>27174</v>
       </c>
       <c r="B33" t="n">
-        <v>144098</v>
+        <v>175353</v>
       </c>
       <c r="C33" t="s">
         <v>253</v>
@@ -13764,7 +13764,7 @@
         <v>27174</v>
       </c>
       <c r="B34" t="n">
-        <v>144099</v>
+        <v>175354</v>
       </c>
       <c r="C34" t="s">
         <v>258</v>
@@ -13896,7 +13896,7 @@
         <v>27174</v>
       </c>
       <c r="B36" t="n">
-        <v>144100</v>
+        <v>175355</v>
       </c>
       <c r="C36" t="s">
         <v>270</v>
@@ -13967,7 +13967,7 @@
         <v>27174</v>
       </c>
       <c r="B37" t="n">
-        <v>144101</v>
+        <v>175356</v>
       </c>
       <c r="C37" t="s">
         <v>276</v>
@@ -14038,7 +14038,7 @@
         <v>27174</v>
       </c>
       <c r="B38" t="n">
-        <v>144102</v>
+        <v>175357</v>
       </c>
       <c r="C38" t="s">
         <v>283</v>
@@ -14174,7 +14174,7 @@
         <v>27174</v>
       </c>
       <c r="B40" t="n">
-        <v>144103</v>
+        <v>175358</v>
       </c>
       <c r="C40" t="s">
         <v>296</v>
@@ -14235,7 +14235,7 @@
         <v>27174</v>
       </c>
       <c r="B41" t="n">
-        <v>144104</v>
+        <v>175359</v>
       </c>
       <c r="C41" t="s">
         <v>304</v>
@@ -14367,7 +14367,7 @@
         <v>27174</v>
       </c>
       <c r="B43" t="n">
-        <v>144105</v>
+        <v>175360</v>
       </c>
       <c r="C43" t="s">
         <v>317</v>
@@ -14438,7 +14438,7 @@
         <v>27174</v>
       </c>
       <c r="B44" t="n">
-        <v>144106</v>
+        <v>175361</v>
       </c>
       <c r="C44" t="s">
         <v>323</v>
@@ -14503,7 +14503,7 @@
         <v>27174</v>
       </c>
       <c r="B45" t="n">
-        <v>144107</v>
+        <v>175362</v>
       </c>
       <c r="C45" t="s">
         <v>330</v>
@@ -14574,7 +14574,7 @@
         <v>27174</v>
       </c>
       <c r="B46" t="n">
-        <v>144108</v>
+        <v>144242</v>
       </c>
       <c r="C46" t="s">
         <v>336</v>
@@ -14639,7 +14639,7 @@
         <v>27174</v>
       </c>
       <c r="B47" t="n">
-        <v>144109</v>
+        <v>175363</v>
       </c>
       <c r="C47" t="s">
         <v>343</v>
@@ -14710,7 +14710,7 @@
         <v>27174</v>
       </c>
       <c r="B48" t="n">
-        <v>144110</v>
+        <v>175364</v>
       </c>
       <c r="C48" t="s">
         <v>349</v>
@@ -14781,7 +14781,7 @@
         <v>27174</v>
       </c>
       <c r="B49" t="n">
-        <v>144111</v>
+        <v>175365</v>
       </c>
       <c r="C49" t="s">
         <v>354</v>
@@ -14842,7 +14842,7 @@
         <v>27174</v>
       </c>
       <c r="B50" t="n">
-        <v>144112</v>
+        <v>175366</v>
       </c>
       <c r="C50" t="s">
         <v>360</v>
@@ -14913,7 +14913,7 @@
         <v>27174</v>
       </c>
       <c r="B51" t="n">
-        <v>144113</v>
+        <v>175367</v>
       </c>
       <c r="C51" t="s">
         <v>366</v>
@@ -14980,7 +14980,7 @@
         <v>27174</v>
       </c>
       <c r="B52" t="n">
-        <v>144114</v>
+        <v>175368</v>
       </c>
       <c r="C52" t="s">
         <v>372</v>
@@ -15106,7 +15106,7 @@
         <v>27174</v>
       </c>
       <c r="B54" t="n">
-        <v>144115</v>
+        <v>175369</v>
       </c>
       <c r="C54" t="s">
         <v>386</v>
@@ -15177,7 +15177,7 @@
         <v>27174</v>
       </c>
       <c r="B55" t="n">
-        <v>144116</v>
+        <v>175370</v>
       </c>
       <c r="C55" t="s">
         <v>392</v>
@@ -15248,7 +15248,7 @@
         <v>27174</v>
       </c>
       <c r="B56" t="n">
-        <v>144117</v>
+        <v>175371</v>
       </c>
       <c r="C56" t="s">
         <v>398</v>
@@ -15319,7 +15319,7 @@
         <v>27174</v>
       </c>
       <c r="B57" t="n">
-        <v>144118</v>
+        <v>175372</v>
       </c>
       <c r="C57" t="s">
         <v>404</v>
@@ -15455,7 +15455,7 @@
         <v>27174</v>
       </c>
       <c r="B59" t="n">
-        <v>144119</v>
+        <v>175373</v>
       </c>
       <c r="C59" t="s">
         <v>416</v>
@@ -15526,7 +15526,7 @@
         <v>27174</v>
       </c>
       <c r="B60" t="n">
-        <v>144120</v>
+        <v>175374</v>
       </c>
       <c r="C60" t="s">
         <v>422</v>
@@ -15597,7 +15597,7 @@
         <v>27174</v>
       </c>
       <c r="B61" t="n">
-        <v>144121</v>
+        <v>175375</v>
       </c>
       <c r="C61" t="s">
         <v>428</v>
@@ -15804,7 +15804,7 @@
         <v>27174</v>
       </c>
       <c r="B64" t="n">
-        <v>144122</v>
+        <v>175376</v>
       </c>
       <c r="C64" t="s">
         <v>445</v>
@@ -15875,7 +15875,7 @@
         <v>27174</v>
       </c>
       <c r="B65" t="n">
-        <v>144123</v>
+        <v>175377</v>
       </c>
       <c r="C65" t="s">
         <v>450</v>
@@ -16017,7 +16017,7 @@
         <v>27174</v>
       </c>
       <c r="B67" t="n">
-        <v>144124</v>
+        <v>175378</v>
       </c>
       <c r="C67" t="s">
         <v>463</v>
@@ -16088,7 +16088,7 @@
         <v>27174</v>
       </c>
       <c r="B68" t="n">
-        <v>144125</v>
+        <v>175379</v>
       </c>
       <c r="C68" t="s">
         <v>469</v>
@@ -16163,7 +16163,7 @@
         <v>27174</v>
       </c>
       <c r="B69" t="n">
-        <v>144126</v>
+        <v>175380</v>
       </c>
       <c r="C69" t="s">
         <v>479</v>
@@ -16313,7 +16313,7 @@
         <v>27174</v>
       </c>
       <c r="B71" t="n">
-        <v>144127</v>
+        <v>175381</v>
       </c>
       <c r="C71" t="s">
         <v>493</v>
@@ -16388,7 +16388,7 @@
         <v>27174</v>
       </c>
       <c r="B72" t="n">
-        <v>144128</v>
+        <v>175382</v>
       </c>
       <c r="C72" t="s">
         <v>502</v>
@@ -16463,7 +16463,7 @@
         <v>27174</v>
       </c>
       <c r="B73" t="n">
-        <v>144129</v>
+        <v>175383</v>
       </c>
       <c r="C73" t="s">
         <v>509</v>
@@ -16538,7 +16538,7 @@
         <v>27174</v>
       </c>
       <c r="B74" t="n">
-        <v>144130</v>
+        <v>175384</v>
       </c>
       <c r="C74" t="s">
         <v>518</v>
@@ -16609,7 +16609,7 @@
         <v>27174</v>
       </c>
       <c r="B75" t="n">
-        <v>144131</v>
+        <v>175385</v>
       </c>
       <c r="C75" t="s">
         <v>524</v>
@@ -16680,7 +16680,7 @@
         <v>27174</v>
       </c>
       <c r="B76" t="n">
-        <v>144132</v>
+        <v>175386</v>
       </c>
       <c r="C76" t="s">
         <v>530</v>
@@ -16741,7 +16741,7 @@
         <v>27174</v>
       </c>
       <c r="B77" t="n">
-        <v>144133</v>
+        <v>175387</v>
       </c>
       <c r="C77" t="s">
         <v>536</v>
@@ -16816,7 +16816,7 @@
         <v>27174</v>
       </c>
       <c r="B78" t="n">
-        <v>144134</v>
+        <v>175388</v>
       </c>
       <c r="C78" t="s">
         <v>545</v>
@@ -16887,7 +16887,7 @@
         <v>27174</v>
       </c>
       <c r="B79" t="n">
-        <v>144135</v>
+        <v>175389</v>
       </c>
       <c r="C79" t="s">
         <v>551</v>
@@ -17037,7 +17037,7 @@
         <v>27174</v>
       </c>
       <c r="B81" t="n">
-        <v>144136</v>
+        <v>175390</v>
       </c>
       <c r="C81" t="s">
         <v>570</v>
@@ -17112,7 +17112,7 @@
         <v>27174</v>
       </c>
       <c r="B82" t="n">
-        <v>144137</v>
+        <v>175391</v>
       </c>
       <c r="C82" t="s">
         <v>579</v>
@@ -17187,7 +17187,7 @@
         <v>27174</v>
       </c>
       <c r="B83" t="n">
-        <v>144138</v>
+        <v>175392</v>
       </c>
       <c r="C83" t="s">
         <v>588</v>
@@ -17337,7 +17337,7 @@
         <v>27174</v>
       </c>
       <c r="B85" t="n">
-        <v>144139</v>
+        <v>175393</v>
       </c>
       <c r="C85" t="s">
         <v>606</v>
@@ -17402,7 +17402,7 @@
         <v>27174</v>
       </c>
       <c r="B86" t="n">
-        <v>144140</v>
+        <v>175394</v>
       </c>
       <c r="C86" t="s">
         <v>615</v>
@@ -17473,7 +17473,7 @@
         <v>27174</v>
       </c>
       <c r="B87" t="n">
-        <v>144141</v>
+        <v>175395</v>
       </c>
       <c r="C87" t="s">
         <v>622</v>
@@ -17548,7 +17548,7 @@
         <v>27174</v>
       </c>
       <c r="B88" t="n">
-        <v>144142</v>
+        <v>175396</v>
       </c>
       <c r="C88" t="s">
         <v>630</v>
@@ -17623,7 +17623,7 @@
         <v>27174</v>
       </c>
       <c r="B89" t="n">
-        <v>144143</v>
+        <v>175397</v>
       </c>
       <c r="C89" t="s">
         <v>639</v>
@@ -17694,7 +17694,7 @@
         <v>27174</v>
       </c>
       <c r="B90" t="n">
-        <v>144144</v>
+        <v>175398</v>
       </c>
       <c r="C90" t="s">
         <v>646</v>
@@ -17765,7 +17765,7 @@
         <v>27174</v>
       </c>
       <c r="B91" t="n">
-        <v>144145</v>
+        <v>175399</v>
       </c>
       <c r="C91" t="s">
         <v>651</v>
@@ -17840,7 +17840,7 @@
         <v>27174</v>
       </c>
       <c r="B92" t="n">
-        <v>144146</v>
+        <v>175400</v>
       </c>
       <c r="C92" t="s">
         <v>658</v>
@@ -17986,7 +17986,7 @@
         <v>27174</v>
       </c>
       <c r="B94" t="n">
-        <v>144147</v>
+        <v>175401</v>
       </c>
       <c r="C94" t="s">
         <v>677</v>
@@ -18061,7 +18061,7 @@
         <v>27174</v>
       </c>
       <c r="B95" t="n">
-        <v>144148</v>
+        <v>175402</v>
       </c>
       <c r="C95" t="s">
         <v>687</v>
@@ -18122,7 +18122,7 @@
         <v>27174</v>
       </c>
       <c r="B96" t="n">
-        <v>144149</v>
+        <v>175403</v>
       </c>
       <c r="C96" t="s">
         <v>693</v>
@@ -18197,7 +18197,7 @@
         <v>27174</v>
       </c>
       <c r="B97" t="n">
-        <v>144150</v>
+        <v>175404</v>
       </c>
       <c r="C97" t="s">
         <v>702</v>
@@ -18272,7 +18272,7 @@
         <v>27174</v>
       </c>
       <c r="B98" t="n">
-        <v>144151</v>
+        <v>175405</v>
       </c>
       <c r="C98" t="s">
         <v>710</v>
@@ -18347,7 +18347,7 @@
         <v>27174</v>
       </c>
       <c r="B99" t="n">
-        <v>144152</v>
+        <v>175406</v>
       </c>
       <c r="C99" t="s">
         <v>717</v>
@@ -18422,7 +18422,7 @@
         <v>27174</v>
       </c>
       <c r="B100" t="n">
-        <v>144153</v>
+        <v>175407</v>
       </c>
       <c r="C100" t="s">
         <v>726</v>
@@ -18497,7 +18497,7 @@
         <v>27174</v>
       </c>
       <c r="B101" t="n">
-        <v>144154</v>
+        <v>175408</v>
       </c>
       <c r="C101" t="s">
         <v>734</v>
@@ -18568,7 +18568,7 @@
         <v>27174</v>
       </c>
       <c r="B102" t="n">
-        <v>144155</v>
+        <v>175409</v>
       </c>
       <c r="C102" t="s">
         <v>740</v>
@@ -18643,7 +18643,7 @@
         <v>27174</v>
       </c>
       <c r="B103" t="n">
-        <v>144156</v>
+        <v>175410</v>
       </c>
       <c r="C103" t="s">
         <v>748</v>
@@ -18718,7 +18718,7 @@
         <v>27174</v>
       </c>
       <c r="B104" t="n">
-        <v>144157</v>
+        <v>175411</v>
       </c>
       <c r="C104" t="s">
         <v>755</v>
@@ -18793,7 +18793,7 @@
         <v>27174</v>
       </c>
       <c r="B105" t="n">
-        <v>144158</v>
+        <v>175412</v>
       </c>
       <c r="C105" t="s">
         <v>763</v>
@@ -18868,7 +18868,7 @@
         <v>27174</v>
       </c>
       <c r="B106" t="n">
-        <v>144159</v>
+        <v>175413</v>
       </c>
       <c r="C106" t="s">
         <v>769</v>
@@ -18929,7 +18929,7 @@
         <v>27174</v>
       </c>
       <c r="B107" t="n">
-        <v>144160</v>
+        <v>175414</v>
       </c>
       <c r="C107" t="s">
         <v>777</v>
@@ -18994,7 +18994,7 @@
         <v>27174</v>
       </c>
       <c r="B108" t="n">
-        <v>144161</v>
+        <v>175415</v>
       </c>
       <c r="C108" t="s">
         <v>786</v>
@@ -19069,7 +19069,7 @@
         <v>27174</v>
       </c>
       <c r="B109" t="n">
-        <v>144162</v>
+        <v>175416</v>
       </c>
       <c r="C109" t="s">
         <v>795</v>
@@ -19142,7 +19142,7 @@
         <v>27174</v>
       </c>
       <c r="B110" t="n">
-        <v>144163</v>
+        <v>175417</v>
       </c>
       <c r="C110" t="s">
         <v>802</v>
@@ -19292,7 +19292,7 @@
         <v>27174</v>
       </c>
       <c r="B112" t="n">
-        <v>144164</v>
+        <v>175418</v>
       </c>
       <c r="C112" t="s">
         <v>820</v>
@@ -19367,7 +19367,7 @@
         <v>27174</v>
       </c>
       <c r="B113" t="n">
-        <v>144165</v>
+        <v>175419</v>
       </c>
       <c r="C113" t="s">
         <v>825</v>
@@ -19659,7 +19659,7 @@
         <v>27174</v>
       </c>
       <c r="B117" t="n">
-        <v>144166</v>
+        <v>175420</v>
       </c>
       <c r="C117" t="s">
         <v>853</v>
@@ -19730,7 +19730,7 @@
         <v>27174</v>
       </c>
       <c r="B118" t="n">
-        <v>144167</v>
+        <v>175421</v>
       </c>
       <c r="C118" t="s">
         <v>858</v>
@@ -19791,7 +19791,7 @@
         <v>27174</v>
       </c>
       <c r="B119" t="n">
-        <v>144168</v>
+        <v>175422</v>
       </c>
       <c r="C119" t="s">
         <v>865</v>
@@ -19862,7 +19862,7 @@
         <v>27174</v>
       </c>
       <c r="B120" t="n">
-        <v>144169</v>
+        <v>175423</v>
       </c>
       <c r="C120" t="s">
         <v>872</v>
@@ -20002,7 +20002,7 @@
         <v>27174</v>
       </c>
       <c r="B122" t="n">
-        <v>144170</v>
+        <v>175424</v>
       </c>
       <c r="C122" t="s">
         <v>885</v>
@@ -20140,7 +20140,7 @@
         <v>27174</v>
       </c>
       <c r="B124" t="n">
-        <v>144171</v>
+        <v>175425</v>
       </c>
       <c r="C124" t="s">
         <v>897</v>
@@ -20282,7 +20282,7 @@
         <v>27174</v>
       </c>
       <c r="B126" t="n">
-        <v>144172</v>
+        <v>175426</v>
       </c>
       <c r="C126" t="s">
         <v>909</v>
@@ -20353,7 +20353,7 @@
         <v>27174</v>
       </c>
       <c r="B127" t="n">
-        <v>144173</v>
+        <v>175427</v>
       </c>
       <c r="C127" t="s">
         <v>915</v>
@@ -20840,7 +20840,7 @@
         <v>27174</v>
       </c>
       <c r="B134" t="n">
-        <v>144174</v>
+        <v>175428</v>
       </c>
       <c r="C134" t="s">
         <v>958</v>
@@ -20976,7 +20976,7 @@
         <v>27174</v>
       </c>
       <c r="B136" t="n">
-        <v>144175</v>
+        <v>175429</v>
       </c>
       <c r="C136" t="s">
         <v>971</v>
@@ -21033,7 +21033,7 @@
         <v>27174</v>
       </c>
       <c r="B137" t="n">
-        <v>144176</v>
+        <v>175430</v>
       </c>
       <c r="C137" t="s">
         <v>978</v>
@@ -21100,7 +21100,7 @@
         <v>27174</v>
       </c>
       <c r="B138" t="n">
-        <v>144177</v>
+        <v>175431</v>
       </c>
       <c r="C138" t="s">
         <v>984</v>
@@ -21303,7 +21303,7 @@
         <v>27174</v>
       </c>
       <c r="B141" t="n">
-        <v>144178</v>
+        <v>175432</v>
       </c>
       <c r="C141" t="s">
         <v>1003</v>
@@ -21445,7 +21445,7 @@
         <v>27174</v>
       </c>
       <c r="B143" t="n">
-        <v>144179</v>
+        <v>175433</v>
       </c>
       <c r="C143" t="s">
         <v>1014</v>
@@ -21506,7 +21506,7 @@
         <v>27174</v>
       </c>
       <c r="B144" t="n">
-        <v>144180</v>
+        <v>175434</v>
       </c>
       <c r="C144" t="s">
         <v>1021</v>
@@ -21648,7 +21648,7 @@
         <v>27174</v>
       </c>
       <c r="B146" t="n">
-        <v>144181</v>
+        <v>175435</v>
       </c>
       <c r="C146" t="s">
         <v>1032</v>
@@ -21983,7 +21983,7 @@
         <v>27174</v>
       </c>
       <c r="B151" t="n">
-        <v>144182</v>
+        <v>175436</v>
       </c>
       <c r="C151" t="s">
         <v>1062</v>
@@ -22044,7 +22044,7 @@
         <v>27174</v>
       </c>
       <c r="B152" t="n">
-        <v>144183</v>
+        <v>175437</v>
       </c>
       <c r="C152" t="s">
         <v>1068</v>
@@ -22115,7 +22115,7 @@
         <v>27174</v>
       </c>
       <c r="B153" t="n">
-        <v>144184</v>
+        <v>175438</v>
       </c>
       <c r="C153" t="s">
         <v>1073</v>
@@ -22186,7 +22186,7 @@
         <v>27174</v>
       </c>
       <c r="B154" t="n">
-        <v>144185</v>
+        <v>175439</v>
       </c>
       <c r="C154" t="s">
         <v>1079</v>
@@ -22257,7 +22257,7 @@
         <v>27174</v>
       </c>
       <c r="B155" t="n">
-        <v>144186</v>
+        <v>175440</v>
       </c>
       <c r="C155" t="s">
         <v>1085</v>
@@ -22537,7 +22537,7 @@
         <v>27174</v>
       </c>
       <c r="B159" t="n">
-        <v>144187</v>
+        <v>175441</v>
       </c>
       <c r="C159" t="s">
         <v>1110</v>
@@ -22604,7 +22604,7 @@
         <v>27174</v>
       </c>
       <c r="B160" t="n">
-        <v>144188</v>
+        <v>175442</v>
       </c>
       <c r="C160" t="s">
         <v>1117</v>
@@ -22811,7 +22811,7 @@
         <v>27174</v>
       </c>
       <c r="B163" t="n">
-        <v>144189</v>
+        <v>175443</v>
       </c>
       <c r="C163" t="s">
         <v>1137</v>
@@ -22882,7 +22882,7 @@
         <v>27174</v>
       </c>
       <c r="B164" t="n">
-        <v>144190</v>
+        <v>175444</v>
       </c>
       <c r="C164" t="s">
         <v>1143</v>
@@ -23024,7 +23024,7 @@
         <v>27174</v>
       </c>
       <c r="B166" t="n">
-        <v>144191</v>
+        <v>175445</v>
       </c>
       <c r="C166" t="s">
         <v>1155</v>
@@ -23085,7 +23085,7 @@
         <v>27174</v>
       </c>
       <c r="B167" t="n">
-        <v>144192</v>
+        <v>175446</v>
       </c>
       <c r="C167" t="s">
         <v>1161</v>
@@ -23156,7 +23156,7 @@
         <v>27174</v>
       </c>
       <c r="B168" t="n">
-        <v>144193</v>
+        <v>175447</v>
       </c>
       <c r="C168" t="s">
         <v>1167</v>
@@ -23227,7 +23227,7 @@
         <v>27174</v>
       </c>
       <c r="B169" t="n">
-        <v>144194</v>
+        <v>175448</v>
       </c>
       <c r="C169" t="s">
         <v>1172</v>
@@ -23298,7 +23298,7 @@
         <v>27174</v>
       </c>
       <c r="B170" t="n">
-        <v>144195</v>
+        <v>175449</v>
       </c>
       <c r="C170" t="s">
         <v>1178</v>
@@ -23426,7 +23426,7 @@
         <v>27174</v>
       </c>
       <c r="B172" t="n">
-        <v>144196</v>
+        <v>175450</v>
       </c>
       <c r="C172" t="s">
         <v>1191</v>
@@ -23497,7 +23497,7 @@
         <v>27174</v>
       </c>
       <c r="B173" t="n">
-        <v>144197</v>
+        <v>175451</v>
       </c>
       <c r="C173" t="s">
         <v>1197</v>
@@ -23639,7 +23639,7 @@
         <v>27174</v>
       </c>
       <c r="B175" t="n">
-        <v>144198</v>
+        <v>175452</v>
       </c>
       <c r="C175" t="s">
         <v>1209</v>
@@ -23842,7 +23842,7 @@
         <v>27174</v>
       </c>
       <c r="B178" t="n">
-        <v>144199</v>
+        <v>175453</v>
       </c>
       <c r="C178" t="s">
         <v>1227</v>
@@ -23913,7 +23913,7 @@
         <v>27174</v>
       </c>
       <c r="B179" t="n">
-        <v>144200</v>
+        <v>175454</v>
       </c>
       <c r="C179" t="s">
         <v>1233</v>
@@ -23984,7 +23984,7 @@
         <v>27174</v>
       </c>
       <c r="B180" t="n">
-        <v>144201</v>
+        <v>175455</v>
       </c>
       <c r="C180" t="s">
         <v>1239</v>
@@ -24051,7 +24051,7 @@
         <v>27174</v>
       </c>
       <c r="B181" t="n">
-        <v>144202</v>
+        <v>175456</v>
       </c>
       <c r="C181" t="s">
         <v>1245</v>
@@ -24122,7 +24122,7 @@
         <v>27174</v>
       </c>
       <c r="B182" t="n">
-        <v>144203</v>
+        <v>144208</v>
       </c>
       <c r="C182" t="s">
         <v>1251</v>
@@ -24396,7 +24396,7 @@
         <v>27174</v>
       </c>
       <c r="B186" t="n">
-        <v>144204</v>
+        <v>175457</v>
       </c>
       <c r="C186" t="s">
         <v>1276</v>
@@ -24461,7 +24461,7 @@
         <v>27174</v>
       </c>
       <c r="B187" t="n">
-        <v>144205</v>
+        <v>175458</v>
       </c>
       <c r="C187" t="s">
         <v>1283</v>
@@ -24526,7 +24526,7 @@
         <v>27174</v>
       </c>
       <c r="B188" t="n">
-        <v>144206</v>
+        <v>175459</v>
       </c>
       <c r="C188" t="s">
         <v>1290</v>
@@ -24597,7 +24597,7 @@
         <v>27174</v>
       </c>
       <c r="B189" t="n">
-        <v>144207</v>
+        <v>175460</v>
       </c>
       <c r="C189" t="s">
         <v>1296</v>
@@ -24668,7 +24668,7 @@
         <v>27174</v>
       </c>
       <c r="B190" t="n">
-        <v>144208</v>
+        <v>175461</v>
       </c>
       <c r="C190" t="s">
         <v>1302</v>
@@ -24800,7 +24800,7 @@
         <v>27174</v>
       </c>
       <c r="B192" t="n">
-        <v>144209</v>
+        <v>175462</v>
       </c>
       <c r="C192" t="s">
         <v>1316</v>
@@ -24871,7 +24871,7 @@
         <v>27174</v>
       </c>
       <c r="B193" t="n">
-        <v>144210</v>
+        <v>175463</v>
       </c>
       <c r="C193" t="s">
         <v>1321</v>
@@ -24936,7 +24936,7 @@
         <v>27174</v>
       </c>
       <c r="B194" t="n">
-        <v>144211</v>
+        <v>175464</v>
       </c>
       <c r="C194" t="s">
         <v>1327</v>
@@ -25007,7 +25007,7 @@
         <v>27174</v>
       </c>
       <c r="B195" t="n">
-        <v>144212</v>
+        <v>175465</v>
       </c>
       <c r="C195" t="s">
         <v>1333</v>
@@ -25149,7 +25149,7 @@
         <v>27174</v>
       </c>
       <c r="B197" t="n">
-        <v>144213</v>
+        <v>175466</v>
       </c>
       <c r="C197" t="s">
         <v>1345</v>
@@ -25216,7 +25216,7 @@
         <v>27174</v>
       </c>
       <c r="B198" t="n">
-        <v>144214</v>
+        <v>175467</v>
       </c>
       <c r="C198" t="s">
         <v>1352</v>
@@ -25281,7 +25281,7 @@
         <v>27174</v>
       </c>
       <c r="B199" t="n">
-        <v>144215</v>
+        <v>175468</v>
       </c>
       <c r="C199" t="s">
         <v>1359</v>
@@ -25411,7 +25411,7 @@
         <v>27174</v>
       </c>
       <c r="B201" t="n">
-        <v>144216</v>
+        <v>175469</v>
       </c>
       <c r="C201" t="s">
         <v>1371</v>
@@ -25482,7 +25482,7 @@
         <v>27174</v>
       </c>
       <c r="B202" t="n">
-        <v>144217</v>
+        <v>175470</v>
       </c>
       <c r="C202" t="s">
         <v>1376</v>
@@ -25620,7 +25620,7 @@
         <v>27174</v>
       </c>
       <c r="B204" t="n">
-        <v>144218</v>
+        <v>175471</v>
       </c>
       <c r="C204" t="s">
         <v>1390</v>
@@ -25687,7 +25687,7 @@
         <v>27174</v>
       </c>
       <c r="B205" t="n">
-        <v>144219</v>
+        <v>175472</v>
       </c>
       <c r="C205" t="s">
         <v>1397</v>
@@ -25967,7 +25967,7 @@
         <v>27174</v>
       </c>
       <c r="B209" t="n">
-        <v>144220</v>
+        <v>175473</v>
       </c>
       <c r="C209" t="s">
         <v>1422</v>
@@ -26099,7 +26099,7 @@
         <v>27174</v>
       </c>
       <c r="B211" t="n">
-        <v>144221</v>
+        <v>175474</v>
       </c>
       <c r="C211" t="s">
         <v>1433</v>
@@ -26170,7 +26170,7 @@
         <v>27174</v>
       </c>
       <c r="B212" t="n">
-        <v>144222</v>
+        <v>175475</v>
       </c>
       <c r="C212" t="s">
         <v>1438</v>
@@ -26312,7 +26312,7 @@
         <v>27174</v>
       </c>
       <c r="B214" t="n">
-        <v>144223</v>
+        <v>175476</v>
       </c>
       <c r="C214" t="s">
         <v>1451</v>
@@ -26454,7 +26454,7 @@
         <v>27174</v>
       </c>
       <c r="B216" t="n">
-        <v>144224</v>
+        <v>175477</v>
       </c>
       <c r="C216" t="s">
         <v>1463</v>
@@ -26592,7 +26592,7 @@
         <v>27174</v>
       </c>
       <c r="B218" t="n">
-        <v>144225</v>
+        <v>175478</v>
       </c>
       <c r="C218" t="s">
         <v>1476</v>
@@ -26726,7 +26726,7 @@
         <v>27174</v>
       </c>
       <c r="B220" t="n">
-        <v>144226</v>
+        <v>175479</v>
       </c>
       <c r="C220" t="s">
         <v>1488</v>
@@ -26862,7 +26862,7 @@
         <v>27174</v>
       </c>
       <c r="B222" t="n">
-        <v>144227</v>
+        <v>175480</v>
       </c>
       <c r="C222" t="s">
         <v>1500</v>
@@ -26933,7 +26933,7 @@
         <v>27174</v>
       </c>
       <c r="B223" t="n">
-        <v>144228</v>
+        <v>175481</v>
       </c>
       <c r="C223" t="s">
         <v>1507</v>
@@ -27071,7 +27071,7 @@
         <v>27174</v>
       </c>
       <c r="B225" t="n">
-        <v>144229</v>
+        <v>175482</v>
       </c>
       <c r="C225" t="s">
         <v>1519</v>
@@ -27142,7 +27142,7 @@
         <v>27174</v>
       </c>
       <c r="B226" t="n">
-        <v>144230</v>
+        <v>175483</v>
       </c>
       <c r="C226" t="s">
         <v>1525</v>
@@ -27278,7 +27278,7 @@
         <v>27174</v>
       </c>
       <c r="B228" t="n">
-        <v>144231</v>
+        <v>175484</v>
       </c>
       <c r="C228" t="s">
         <v>1539</v>
@@ -27349,7 +27349,7 @@
         <v>27174</v>
       </c>
       <c r="B229" t="n">
-        <v>144232</v>
+        <v>175485</v>
       </c>
       <c r="C229" t="s">
         <v>1544</v>
@@ -27420,7 +27420,7 @@
         <v>27174</v>
       </c>
       <c r="B230" t="n">
-        <v>144233</v>
+        <v>175486</v>
       </c>
       <c r="C230" t="s">
         <v>1549</v>
@@ -27485,7 +27485,7 @@
         <v>27174</v>
       </c>
       <c r="B231" t="n">
-        <v>144234</v>
+        <v>175487</v>
       </c>
       <c r="C231" t="s">
         <v>1556</v>
@@ -27550,7 +27550,7 @@
         <v>27174</v>
       </c>
       <c r="B232" t="n">
-        <v>144235</v>
+        <v>175488</v>
       </c>
       <c r="C232" t="s">
         <v>1562</v>
@@ -27761,7 +27761,7 @@
         <v>27174</v>
       </c>
       <c r="B235" t="n">
-        <v>144236</v>
+        <v>175489</v>
       </c>
       <c r="C235" t="s">
         <v>1586</v>
@@ -27911,7 +27911,7 @@
         <v>27174</v>
       </c>
       <c r="B237" t="n">
-        <v>144237</v>
+        <v>175490</v>
       </c>
       <c r="C237" t="s">
         <v>1602</v>
@@ -27976,7 +27976,7 @@
         <v>27174</v>
       </c>
       <c r="B238" t="n">
-        <v>144238</v>
+        <v>175491</v>
       </c>
       <c r="C238" t="s">
         <v>1611</v>
@@ -28051,7 +28051,7 @@
         <v>27174</v>
       </c>
       <c r="B239" t="n">
-        <v>144239</v>
+        <v>175492</v>
       </c>
       <c r="C239" t="s">
         <v>1618</v>
@@ -28116,7 +28116,7 @@
         <v>27174</v>
       </c>
       <c r="B240" t="n">
-        <v>144240</v>
+        <v>175493</v>
       </c>
       <c r="C240" t="s">
         <v>1627</v>
@@ -28187,7 +28187,7 @@
         <v>27174</v>
       </c>
       <c r="B241" t="n">
-        <v>144241</v>
+        <v>175494</v>
       </c>
       <c r="C241" t="s">
         <v>1634</v>
@@ -28256,7 +28256,7 @@
         <v>27174</v>
       </c>
       <c r="B242" t="n">
-        <v>144242</v>
+        <v>175495</v>
       </c>
       <c r="C242" t="s">
         <v>1641</v>
@@ -28552,7 +28552,7 @@
         <v>27174</v>
       </c>
       <c r="B246" t="n">
-        <v>144243</v>
+        <v>175496</v>
       </c>
       <c r="C246" t="s">
         <v>1670</v>
@@ -28627,7 +28627,7 @@
         <v>27174</v>
       </c>
       <c r="B247" t="n">
-        <v>144244</v>
+        <v>175497</v>
       </c>
       <c r="C247" t="s">
         <v>1676</v>
@@ -28698,7 +28698,7 @@
         <v>27174</v>
       </c>
       <c r="B248" t="n">
-        <v>144245</v>
+        <v>175498</v>
       </c>
       <c r="C248" t="s">
         <v>1684</v>
@@ -28988,7 +28988,7 @@
         <v>27174</v>
       </c>
       <c r="B252" t="n">
-        <v>144246</v>
+        <v>175499</v>
       </c>
       <c r="C252" t="s">
         <v>1708</v>
@@ -29197,7 +29197,7 @@
         <v>27174</v>
       </c>
       <c r="B255" t="n">
-        <v>144247</v>
+        <v>175500</v>
       </c>
       <c r="C255" t="s">
         <v>1727</v>
@@ -29325,7 +29325,7 @@
         <v>27174</v>
       </c>
       <c r="B257" t="n">
-        <v>144248</v>
+        <v>175501</v>
       </c>
       <c r="C257" t="s">
         <v>1740</v>
@@ -29400,7 +29400,7 @@
         <v>27174</v>
       </c>
       <c r="B258" t="n">
-        <v>144249</v>
+        <v>175502</v>
       </c>
       <c r="C258" t="s">
         <v>1749</v>
@@ -29542,7 +29542,7 @@
         <v>27174</v>
       </c>
       <c r="B260" t="n">
-        <v>144250</v>
+        <v>175503</v>
       </c>
       <c r="C260" t="s">
         <v>1763</v>
@@ -29668,7 +29668,7 @@
         <v>27174</v>
       </c>
       <c r="B262" t="n">
-        <v>144251</v>
+        <v>175504</v>
       </c>
       <c r="C262" t="s">
         <v>1776</v>
@@ -29739,7 +29739,7 @@
         <v>27174</v>
       </c>
       <c r="B263" t="n">
-        <v>144252</v>
+        <v>175505</v>
       </c>
       <c r="C263" t="s">
         <v>1782</v>
@@ -29806,7 +29806,7 @@
         <v>27174</v>
       </c>
       <c r="B264" t="n">
-        <v>144253</v>
+        <v>175506</v>
       </c>
       <c r="C264" t="s">
         <v>1790</v>
@@ -29877,7 +29877,7 @@
         <v>27174</v>
       </c>
       <c r="B265" t="n">
-        <v>144254</v>
+        <v>175507</v>
       </c>
       <c r="C265" t="s">
         <v>1795</v>
@@ -29948,7 +29948,7 @@
         <v>27174</v>
       </c>
       <c r="B266" t="n">
-        <v>144255</v>
+        <v>175508</v>
       </c>
       <c r="C266" t="s">
         <v>1800</v>
@@ -30084,7 +30084,7 @@
         <v>27174</v>
       </c>
       <c r="B268" t="n">
-        <v>144256</v>
+        <v>175509</v>
       </c>
       <c r="C268" t="s">
         <v>1816</v>
@@ -30230,7 +30230,7 @@
         <v>27174</v>
       </c>
       <c r="B270" t="n">
-        <v>144257</v>
+        <v>175510</v>
       </c>
       <c r="C270" t="s">
         <v>1828</v>
@@ -30301,7 +30301,7 @@
         <v>27174</v>
       </c>
       <c r="B271" t="n">
-        <v>144258</v>
+        <v>175511</v>
       </c>
       <c r="C271" t="s">
         <v>1833</v>
@@ -30368,7 +30368,7 @@
         <v>27174</v>
       </c>
       <c r="B272" t="n">
-        <v>144259</v>
+        <v>175512</v>
       </c>
       <c r="C272" t="s">
         <v>1840</v>
@@ -30435,7 +30435,7 @@
         <v>27174</v>
       </c>
       <c r="B273" t="n">
-        <v>144260</v>
+        <v>144165</v>
       </c>
       <c r="C273" t="s">
         <v>1847</v>
@@ -30567,7 +30567,7 @@
         <v>27174</v>
       </c>
       <c r="B275" t="n">
-        <v>144261</v>
+        <v>175513</v>
       </c>
       <c r="C275" t="s">
         <v>1858</v>
@@ -30638,7 +30638,7 @@
         <v>27174</v>
       </c>
       <c r="B276" t="n">
-        <v>144262</v>
+        <v>175514</v>
       </c>
       <c r="C276" t="s">
         <v>1864</v>
@@ -30776,7 +30776,7 @@
         <v>27174</v>
       </c>
       <c r="B278" t="n">
-        <v>144263</v>
+        <v>175515</v>
       </c>
       <c r="C278" t="s">
         <v>1875</v>
@@ -30918,7 +30918,7 @@
         <v>27174</v>
       </c>
       <c r="B280" t="n">
-        <v>144264</v>
+        <v>175516</v>
       </c>
       <c r="C280" t="s">
         <v>1887</v>
@@ -30985,7 +30985,7 @@
         <v>27174</v>
       </c>
       <c r="B281" t="n">
-        <v>144265</v>
+        <v>175517</v>
       </c>
       <c r="C281" t="s">
         <v>1894</v>
@@ -31123,7 +31123,7 @@
         <v>27174</v>
       </c>
       <c r="B283" t="n">
-        <v>144266</v>
+        <v>175518</v>
       </c>
       <c r="C283" t="s">
         <v>1908</v>
@@ -31332,7 +31332,7 @@
         <v>27174</v>
       </c>
       <c r="B286" t="n">
-        <v>144267</v>
+        <v>175519</v>
       </c>
       <c r="C286" t="s">
         <v>1927</v>
@@ -31403,7 +31403,7 @@
         <v>27174</v>
       </c>
       <c r="B287" t="n">
-        <v>144268</v>
+        <v>175520</v>
       </c>
       <c r="C287" t="s">
         <v>1933</v>
@@ -31468,7 +31468,7 @@
         <v>27174</v>
       </c>
       <c r="B288" t="n">
-        <v>144269</v>
+        <v>144875</v>
       </c>
       <c r="C288" t="s">
         <v>1940</v>
@@ -31529,7 +31529,7 @@
         <v>27174</v>
       </c>
       <c r="B289" t="n">
-        <v>144270</v>
+        <v>175521</v>
       </c>
       <c r="C289" t="s">
         <v>1947</v>
@@ -31600,7 +31600,7 @@
         <v>27174</v>
       </c>
       <c r="B290" t="n">
-        <v>144271</v>
+        <v>175522</v>
       </c>
       <c r="C290" t="s">
         <v>1953</v>
@@ -31657,7 +31657,7 @@
         <v>27174</v>
       </c>
       <c r="B291" t="n">
-        <v>144272</v>
+        <v>175523</v>
       </c>
       <c r="C291" t="s">
         <v>1960</v>
@@ -31724,7 +31724,7 @@
         <v>27174</v>
       </c>
       <c r="B292" t="n">
-        <v>144273</v>
+        <v>175524</v>
       </c>
       <c r="C292" t="s">
         <v>1966</v>
@@ -31795,7 +31795,7 @@
         <v>27174</v>
       </c>
       <c r="B293" t="n">
-        <v>144274</v>
+        <v>175525</v>
       </c>
       <c r="C293" t="s">
         <v>1972</v>
@@ -31862,7 +31862,7 @@
         <v>27174</v>
       </c>
       <c r="B294" t="n">
-        <v>144275</v>
+        <v>175526</v>
       </c>
       <c r="C294" t="s">
         <v>1978</v>
@@ -32000,7 +32000,7 @@
         <v>27174</v>
       </c>
       <c r="B296" t="n">
-        <v>144276</v>
+        <v>175527</v>
       </c>
       <c r="C296" t="s">
         <v>1990</v>
@@ -32067,7 +32067,7 @@
         <v>27174</v>
       </c>
       <c r="B297" t="n">
-        <v>144277</v>
+        <v>175528</v>
       </c>
       <c r="C297" t="s">
         <v>1996</v>
@@ -32132,7 +32132,7 @@
         <v>27174</v>
       </c>
       <c r="B298" t="n">
-        <v>144278</v>
+        <v>175529</v>
       </c>
       <c r="C298" t="s">
         <v>2003</v>
@@ -32347,7 +32347,7 @@
         <v>27174</v>
       </c>
       <c r="B301" t="n">
-        <v>144279</v>
+        <v>175530</v>
       </c>
       <c r="C301" t="s">
         <v>2026</v>
@@ -32414,7 +32414,7 @@
         <v>27174</v>
       </c>
       <c r="B302" t="n">
-        <v>144280</v>
+        <v>175531</v>
       </c>
       <c r="C302" t="s">
         <v>2033</v>
@@ -32479,7 +32479,7 @@
         <v>27174</v>
       </c>
       <c r="B303" t="n">
-        <v>144259</v>
+        <v>144165</v>
       </c>
       <c r="C303" t="s">
         <v>1847</v>
@@ -32615,7 +32615,7 @@
         <v>27174</v>
       </c>
       <c r="B305" t="n">
-        <v>144281</v>
+        <v>175532</v>
       </c>
       <c r="C305" t="s">
         <v>2052</v>
@@ -32824,7 +32824,7 @@
         <v>27174</v>
       </c>
       <c r="B308" t="n">
-        <v>144282</v>
+        <v>175533</v>
       </c>
       <c r="C308" t="s">
         <v>2073</v>
@@ -33037,7 +33037,7 @@
         <v>27174</v>
       </c>
       <c r="B311" t="n">
-        <v>144283</v>
+        <v>175534</v>
       </c>
       <c r="C311" t="s">
         <v>2091</v>
@@ -33104,7 +33104,7 @@
         <v>27174</v>
       </c>
       <c r="B312" t="n">
-        <v>144284</v>
+        <v>175535</v>
       </c>
       <c r="C312" t="s">
         <v>2099</v>
@@ -33169,7 +33169,7 @@
         <v>27174</v>
       </c>
       <c r="B313" t="n">
-        <v>144285</v>
+        <v>175536</v>
       </c>
       <c r="C313" t="s">
         <v>2105</v>
@@ -33309,7 +33309,7 @@
         <v>27174</v>
       </c>
       <c r="B315" t="n">
-        <v>144286</v>
+        <v>175537</v>
       </c>
       <c r="C315" t="s">
         <v>2117</v>
@@ -33380,7 +33380,7 @@
         <v>27174</v>
       </c>
       <c r="B316" t="n">
-        <v>144287</v>
+        <v>175538</v>
       </c>
       <c r="C316" t="s">
         <v>2122</v>
@@ -33725,7 +33725,7 @@
         <v>27174</v>
       </c>
       <c r="B321" t="n">
-        <v>144288</v>
+        <v>175539</v>
       </c>
       <c r="C321" t="s">
         <v>2154</v>
@@ -33934,7 +33934,7 @@
         <v>27174</v>
       </c>
       <c r="B324" t="n">
-        <v>144289</v>
+        <v>175540</v>
       </c>
       <c r="C324" t="s">
         <v>2171</v>
@@ -34344,7 +34344,7 @@
         <v>27174</v>
       </c>
       <c r="B330" t="n">
-        <v>144290</v>
+        <v>175541</v>
       </c>
       <c r="C330" t="s">
         <v>2210</v>
@@ -34480,7 +34480,7 @@
         <v>27174</v>
       </c>
       <c r="B332" t="n">
-        <v>144291</v>
+        <v>175542</v>
       </c>
       <c r="C332" t="s">
         <v>2224</v>
@@ -34551,7 +34551,7 @@
         <v>27174</v>
       </c>
       <c r="B333" t="n">
-        <v>144292</v>
+        <v>175543</v>
       </c>
       <c r="C333" t="s">
         <v>2231</v>
@@ -34693,7 +34693,7 @@
         <v>27174</v>
       </c>
       <c r="B335" t="n">
-        <v>144293</v>
+        <v>175544</v>
       </c>
       <c r="C335" t="s">
         <v>2242</v>
@@ -34764,7 +34764,7 @@
         <v>27174</v>
       </c>
       <c r="B336" t="n">
-        <v>144294</v>
+        <v>175545</v>
       </c>
       <c r="C336" t="s">
         <v>2249</v>
@@ -34906,7 +34906,7 @@
         <v>27174</v>
       </c>
       <c r="B338" t="n">
-        <v>144295</v>
+        <v>175546</v>
       </c>
       <c r="C338" t="s">
         <v>2260</v>
@@ -35044,7 +35044,7 @@
         <v>27174</v>
       </c>
       <c r="B340" t="n">
-        <v>144296</v>
+        <v>175547</v>
       </c>
       <c r="C340" t="s">
         <v>2273</v>
@@ -35115,7 +35115,7 @@
         <v>27174</v>
       </c>
       <c r="B341" t="n">
-        <v>144297</v>
+        <v>175548</v>
       </c>
       <c r="C341" t="s">
         <v>2279</v>
@@ -35180,7 +35180,7 @@
         <v>27174</v>
       </c>
       <c r="B342" t="n">
-        <v>144298</v>
+        <v>175549</v>
       </c>
       <c r="C342" t="s">
         <v>2286</v>
@@ -35318,7 +35318,7 @@
         <v>27174</v>
       </c>
       <c r="B344" t="n">
-        <v>144299</v>
+        <v>175550</v>
       </c>
       <c r="C344" t="s">
         <v>2298</v>
@@ -35456,7 +35456,7 @@
         <v>27174</v>
       </c>
       <c r="B346" t="n">
-        <v>144300</v>
+        <v>175551</v>
       </c>
       <c r="C346" t="s">
         <v>2311</v>
@@ -35594,7 +35594,7 @@
         <v>27174</v>
       </c>
       <c r="B348" t="n">
-        <v>144301</v>
+        <v>175552</v>
       </c>
       <c r="C348" t="s">
         <v>2324</v>
@@ -35665,7 +35665,7 @@
         <v>27174</v>
       </c>
       <c r="B349" t="n">
-        <v>144302</v>
+        <v>175553</v>
       </c>
       <c r="C349" t="s">
         <v>2328</v>
@@ -35726,7 +35726,7 @@
         <v>27174</v>
       </c>
       <c r="B350" t="n">
-        <v>144303</v>
+        <v>175554</v>
       </c>
       <c r="C350" t="s">
         <v>2334</v>
@@ -35797,7 +35797,7 @@
         <v>27174</v>
       </c>
       <c r="B351" t="n">
-        <v>144304</v>
+        <v>175555</v>
       </c>
       <c r="C351" t="s">
         <v>2340</v>
@@ -35868,7 +35868,7 @@
         <v>27174</v>
       </c>
       <c r="B352" t="n">
-        <v>144305</v>
+        <v>175556</v>
       </c>
       <c r="C352" t="s">
         <v>2348</v>
@@ -35939,7 +35939,7 @@
         <v>27174</v>
       </c>
       <c r="B353" t="n">
-        <v>144306</v>
+        <v>175557</v>
       </c>
       <c r="C353" t="s">
         <v>2352</v>
@@ -36152,7 +36152,7 @@
         <v>27174</v>
       </c>
       <c r="B356" t="n">
-        <v>144307</v>
+        <v>175558</v>
       </c>
       <c r="C356" t="s">
         <v>2370</v>
@@ -36223,7 +36223,7 @@
         <v>27174</v>
       </c>
       <c r="B357" t="n">
-        <v>144308</v>
+        <v>175559</v>
       </c>
       <c r="C357" t="s">
         <v>2377</v>
@@ -36294,7 +36294,7 @@
         <v>27174</v>
       </c>
       <c r="B358" t="n">
-        <v>144309</v>
+        <v>175560</v>
       </c>
       <c r="C358" t="s">
         <v>2384</v>
@@ -36365,7 +36365,7 @@
         <v>27174</v>
       </c>
       <c r="B359" t="n">
-        <v>144310</v>
+        <v>175561</v>
       </c>
       <c r="C359" t="s">
         <v>2390</v>
@@ -36426,7 +36426,7 @@
         <v>27174</v>
       </c>
       <c r="B360" t="n">
-        <v>144311</v>
+        <v>175562</v>
       </c>
       <c r="C360" t="s">
         <v>2396</v>
@@ -36497,7 +36497,7 @@
         <v>27174</v>
       </c>
       <c r="B361" t="n">
-        <v>144312</v>
+        <v>175563</v>
       </c>
       <c r="C361" t="s">
         <v>2402</v>
@@ -36564,7 +36564,7 @@
         <v>27174</v>
       </c>
       <c r="B362" t="n">
-        <v>144313</v>
+        <v>175564</v>
       </c>
       <c r="C362" t="s">
         <v>2409</v>
@@ -36631,7 +36631,7 @@
         <v>27174</v>
       </c>
       <c r="B363" t="n">
-        <v>144314</v>
+        <v>144192</v>
       </c>
       <c r="C363" t="s">
         <v>2415</v>
@@ -36702,7 +36702,7 @@
         <v>27174</v>
       </c>
       <c r="B364" t="n">
-        <v>144313</v>
+        <v>144192</v>
       </c>
       <c r="C364" t="s">
         <v>2415</v>
@@ -36844,7 +36844,7 @@
         <v>27174</v>
       </c>
       <c r="B366" t="n">
-        <v>144315</v>
+        <v>175565</v>
       </c>
       <c r="C366" t="s">
         <v>2434</v>
@@ -36976,7 +36976,7 @@
         <v>27174</v>
       </c>
       <c r="B368" t="n">
-        <v>144316</v>
+        <v>175566</v>
       </c>
       <c r="C368" t="s">
         <v>2447</v>
@@ -37047,7 +37047,7 @@
         <v>27174</v>
       </c>
       <c r="B369" t="n">
-        <v>144317</v>
+        <v>175567</v>
       </c>
       <c r="C369" t="s">
         <v>2454</v>
@@ -37118,7 +37118,7 @@
         <v>27174</v>
       </c>
       <c r="B370" t="n">
-        <v>144318</v>
+        <v>175568</v>
       </c>
       <c r="C370" t="s">
         <v>2460</v>
@@ -37260,7 +37260,7 @@
         <v>27174</v>
       </c>
       <c r="B372" t="n">
-        <v>144319</v>
+        <v>175569</v>
       </c>
       <c r="C372" t="s">
         <v>2471</v>
@@ -37473,7 +37473,7 @@
         <v>27174</v>
       </c>
       <c r="B375" t="n">
-        <v>144320</v>
+        <v>175570</v>
       </c>
       <c r="C375" t="s">
         <v>2489</v>
@@ -37611,7 +37611,7 @@
         <v>27174</v>
       </c>
       <c r="B377" t="n">
-        <v>144321</v>
+        <v>175571</v>
       </c>
       <c r="C377" t="s">
         <v>2500</v>
@@ -37682,7 +37682,7 @@
         <v>27174</v>
       </c>
       <c r="B378" t="n">
-        <v>144322</v>
+        <v>175572</v>
       </c>
       <c r="C378" t="s">
         <v>2506</v>
@@ -37753,7 +37753,7 @@
         <v>27174</v>
       </c>
       <c r="B379" t="n">
-        <v>144323</v>
+        <v>175573</v>
       </c>
       <c r="C379" t="s">
         <v>2511</v>
@@ -37966,7 +37966,7 @@
         <v>27174</v>
       </c>
       <c r="B382" t="n">
-        <v>144324</v>
+        <v>175574</v>
       </c>
       <c r="C382" t="s">
         <v>2530</v>
@@ -38027,7 +38027,7 @@
         <v>27174</v>
       </c>
       <c r="B383" t="n">
-        <v>144325</v>
+        <v>175575</v>
       </c>
       <c r="C383" t="s">
         <v>2536</v>
@@ -38098,7 +38098,7 @@
         <v>27174</v>
       </c>
       <c r="B384" t="n">
-        <v>144326</v>
+        <v>175576</v>
       </c>
       <c r="C384" t="s">
         <v>2544</v>
@@ -38169,7 +38169,7 @@
         <v>27174</v>
       </c>
       <c r="B385" t="n">
-        <v>144327</v>
+        <v>175577</v>
       </c>
       <c r="C385" t="s">
         <v>2548</v>
@@ -38240,7 +38240,7 @@
         <v>27174</v>
       </c>
       <c r="B386" t="n">
-        <v>144328</v>
+        <v>175578</v>
       </c>
       <c r="C386" t="s">
         <v>2555</v>
@@ -38301,7 +38301,7 @@
         <v>27174</v>
       </c>
       <c r="B387" t="n">
-        <v>144329</v>
+        <v>175579</v>
       </c>
       <c r="C387" t="s">
         <v>2562</v>
@@ -38372,7 +38372,7 @@
         <v>27174</v>
       </c>
       <c r="B388" t="n">
-        <v>144330</v>
+        <v>175580</v>
       </c>
       <c r="C388" t="s">
         <v>2569</v>
@@ -38656,7 +38656,7 @@
         <v>27174</v>
       </c>
       <c r="B392" t="n">
-        <v>144331</v>
+        <v>175581</v>
       </c>
       <c r="C392" t="s">
         <v>2594</v>
@@ -39007,7 +39007,7 @@
         <v>27174</v>
       </c>
       <c r="B397" t="n">
-        <v>144332</v>
+        <v>175582</v>
       </c>
       <c r="C397" t="s">
         <v>2622</v>
@@ -39078,7 +39078,7 @@
         <v>27174</v>
       </c>
       <c r="B398" t="n">
-        <v>144202</v>
+        <v>144208</v>
       </c>
       <c r="C398" t="s">
         <v>1251</v>
@@ -39149,7 +39149,7 @@
         <v>27174</v>
       </c>
       <c r="B399" t="n">
-        <v>144333</v>
+        <v>175583</v>
       </c>
       <c r="C399" t="s">
         <v>2634</v>
@@ -39358,7 +39358,7 @@
         <v>27174</v>
       </c>
       <c r="B402" t="n">
-        <v>144334</v>
+        <v>175584</v>
       </c>
       <c r="C402" t="s">
         <v>2650</v>
@@ -39429,7 +39429,7 @@
         <v>27174</v>
       </c>
       <c r="B403" t="n">
-        <v>144335</v>
+        <v>175585</v>
       </c>
       <c r="C403" t="s">
         <v>2657</v>
@@ -39490,7 +39490,7 @@
         <v>27174</v>
       </c>
       <c r="B404" t="n">
-        <v>144336</v>
+        <v>175586</v>
       </c>
       <c r="C404" t="s">
         <v>2664</v>
@@ -39632,7 +39632,7 @@
         <v>27174</v>
       </c>
       <c r="B406" t="n">
-        <v>144337</v>
+        <v>175587</v>
       </c>
       <c r="C406" t="s">
         <v>2676</v>
@@ -39693,7 +39693,7 @@
         <v>27174</v>
       </c>
       <c r="B407" t="n">
-        <v>144338</v>
+        <v>175588</v>
       </c>
       <c r="C407" t="s">
         <v>2681</v>
@@ -40119,7 +40119,7 @@
         <v>27174</v>
       </c>
       <c r="B413" t="n">
-        <v>144339</v>
+        <v>175589</v>
       </c>
       <c r="C413" t="s">
         <v>2715</v>
@@ -40190,7 +40190,7 @@
         <v>27174</v>
       </c>
       <c r="B414" t="n">
-        <v>144340</v>
+        <v>144235</v>
       </c>
       <c r="C414" t="s">
         <v>2721</v>
@@ -40261,7 +40261,7 @@
         <v>27174</v>
       </c>
       <c r="B415" t="n">
-        <v>144341</v>
+        <v>175590</v>
       </c>
       <c r="C415" t="s">
         <v>2727</v>
@@ -40403,7 +40403,7 @@
         <v>27174</v>
       </c>
       <c r="B417" t="n">
-        <v>144342</v>
+        <v>175591</v>
       </c>
       <c r="C417" t="s">
         <v>2740</v>
@@ -40677,7 +40677,7 @@
         <v>27174</v>
       </c>
       <c r="B421" t="n">
-        <v>144343</v>
+        <v>175592</v>
       </c>
       <c r="C421" t="s">
         <v>2763</v>
@@ -40748,7 +40748,7 @@
         <v>27174</v>
       </c>
       <c r="B422" t="n">
-        <v>144344</v>
+        <v>175593</v>
       </c>
       <c r="C422" t="s">
         <v>2768</v>
@@ -41032,7 +41032,7 @@
         <v>27174</v>
       </c>
       <c r="B426" t="n">
-        <v>144345</v>
+        <v>175594</v>
       </c>
       <c r="C426" t="s">
         <v>2793</v>
@@ -41103,7 +41103,7 @@
         <v>27174</v>
       </c>
       <c r="B427" t="n">
-        <v>144346</v>
+        <v>175595</v>
       </c>
       <c r="C427" t="s">
         <v>2799</v>
@@ -41387,7 +41387,7 @@
         <v>27174</v>
       </c>
       <c r="B431" t="n">
-        <v>144347</v>
+        <v>175596</v>
       </c>
       <c r="C431" t="s">
         <v>2821</v>
@@ -41458,7 +41458,7 @@
         <v>27174</v>
       </c>
       <c r="B432" t="n">
-        <v>144348</v>
+        <v>175597</v>
       </c>
       <c r="C432" t="s">
         <v>2828</v>
@@ -41529,7 +41529,7 @@
         <v>27174</v>
       </c>
       <c r="B433" t="n">
-        <v>144349</v>
+        <v>175598</v>
       </c>
       <c r="C433" t="s">
         <v>2833</v>
@@ -41671,7 +41671,7 @@
         <v>27174</v>
       </c>
       <c r="B435" t="n">
-        <v>144350</v>
+        <v>175599</v>
       </c>
       <c r="C435" t="s">
         <v>2845</v>
@@ -41874,7 +41874,7 @@
         <v>27174</v>
       </c>
       <c r="B438" t="n">
-        <v>144351</v>
+        <v>175600</v>
       </c>
       <c r="C438" t="s">
         <v>2864</v>
@@ -41949,7 +41949,7 @@
         <v>27174</v>
       </c>
       <c r="B439" t="n">
-        <v>144352</v>
+        <v>175601</v>
       </c>
       <c r="C439" t="s">
         <v>2872</v>
@@ -42024,7 +42024,7 @@
         <v>27174</v>
       </c>
       <c r="B440" t="n">
-        <v>144353</v>
+        <v>175602</v>
       </c>
       <c r="C440" t="s">
         <v>2881</v>
@@ -42095,7 +42095,7 @@
         <v>27174</v>
       </c>
       <c r="B441" t="n">
-        <v>144354</v>
+        <v>175603</v>
       </c>
       <c r="C441" t="s">
         <v>2889</v>
@@ -42166,7 +42166,7 @@
         <v>27174</v>
       </c>
       <c r="B442" t="n">
-        <v>144355</v>
+        <v>175604</v>
       </c>
       <c r="C442" t="s">
         <v>2896</v>
@@ -42521,7 +42521,7 @@
         <v>27174</v>
       </c>
       <c r="B447" t="n">
-        <v>144356</v>
+        <v>175605</v>
       </c>
       <c r="C447" t="s">
         <v>2924</v>
@@ -42663,7 +42663,7 @@
         <v>27174</v>
       </c>
       <c r="B449" t="n">
-        <v>144339</v>
+        <v>144235</v>
       </c>
       <c r="C449" t="s">
         <v>2721</v>
@@ -42805,7 +42805,7 @@
         <v>27174</v>
       </c>
       <c r="B451" t="n">
-        <v>144357</v>
+        <v>175606</v>
       </c>
       <c r="C451" t="s">
         <v>2947</v>
@@ -43089,7 +43089,7 @@
         <v>27174</v>
       </c>
       <c r="B455" t="n">
-        <v>144358</v>
+        <v>144251</v>
       </c>
       <c r="C455" t="s">
         <v>2974</v>
@@ -43302,7 +43302,7 @@
         <v>27174</v>
       </c>
       <c r="B458" t="n">
-        <v>144107</v>
+        <v>144242</v>
       </c>
       <c r="C458" t="s">
         <v>336</v>
@@ -43373,7 +43373,7 @@
         <v>27174</v>
       </c>
       <c r="B459" t="n">
-        <v>144359</v>
+        <v>175607</v>
       </c>
       <c r="C459" t="s">
         <v>2998</v>
@@ -43444,7 +43444,7 @@
         <v>27174</v>
       </c>
       <c r="B460" t="n">
-        <v>144360</v>
+        <v>175608</v>
       </c>
       <c r="C460" t="s">
         <v>3004</v>
@@ -43515,7 +43515,7 @@
         <v>27174</v>
       </c>
       <c r="B461" t="n">
-        <v>144361</v>
+        <v>175609</v>
       </c>
       <c r="C461" t="s">
         <v>3011</v>
@@ -43586,7 +43586,7 @@
         <v>27174</v>
       </c>
       <c r="B462" t="n">
-        <v>144362</v>
+        <v>175610</v>
       </c>
       <c r="C462" t="s">
         <v>3018</v>
@@ -43657,7 +43657,7 @@
         <v>27174</v>
       </c>
       <c r="B463" t="n">
-        <v>144363</v>
+        <v>175611</v>
       </c>
       <c r="C463" t="s">
         <v>3024</v>
@@ -43728,7 +43728,7 @@
         <v>27174</v>
       </c>
       <c r="B464" t="n">
-        <v>144364</v>
+        <v>175612</v>
       </c>
       <c r="C464" t="s">
         <v>3030</v>
@@ -43799,7 +43799,7 @@
         <v>27174</v>
       </c>
       <c r="B465" t="n">
-        <v>144365</v>
+        <v>175613</v>
       </c>
       <c r="C465" t="s">
         <v>3037</v>
@@ -43870,7 +43870,7 @@
         <v>27174</v>
       </c>
       <c r="B466" t="n">
-        <v>144366</v>
+        <v>175614</v>
       </c>
       <c r="C466" t="s">
         <v>3042</v>
@@ -43941,7 +43941,7 @@
         <v>27174</v>
       </c>
       <c r="B467" t="n">
-        <v>144367</v>
+        <v>175615</v>
       </c>
       <c r="C467" t="s">
         <v>3048</v>
@@ -44148,7 +44148,7 @@
         <v>27174</v>
       </c>
       <c r="B470" t="n">
-        <v>144368</v>
+        <v>175616</v>
       </c>
       <c r="C470" t="s">
         <v>3067</v>
@@ -44219,7 +44219,7 @@
         <v>27174</v>
       </c>
       <c r="B471" t="n">
-        <v>144369</v>
+        <v>175617</v>
       </c>
       <c r="C471" t="s">
         <v>3074</v>
@@ -44290,7 +44290,7 @@
         <v>27174</v>
       </c>
       <c r="B472" t="n">
-        <v>144370</v>
+        <v>175618</v>
       </c>
       <c r="C472" t="s">
         <v>3080</v>
@@ -44361,7 +44361,7 @@
         <v>27174</v>
       </c>
       <c r="B473" t="n">
-        <v>144371</v>
+        <v>175619</v>
       </c>
       <c r="C473" t="s">
         <v>3086</v>
@@ -44649,7 +44649,7 @@
         <v>27174</v>
       </c>
       <c r="B477" t="n">
-        <v>144372</v>
+        <v>175620</v>
       </c>
       <c r="C477" t="s">
         <v>3115</v>
@@ -44791,7 +44791,7 @@
         <v>27174</v>
       </c>
       <c r="B479" t="n">
-        <v>144373</v>
+        <v>175621</v>
       </c>
       <c r="C479" t="s">
         <v>3126</v>
@@ -44866,7 +44866,7 @@
         <v>27174</v>
       </c>
       <c r="B480" t="n">
-        <v>144374</v>
+        <v>175622</v>
       </c>
       <c r="C480" t="s">
         <v>3136</v>
@@ -44937,7 +44937,7 @@
         <v>27174</v>
       </c>
       <c r="B481" t="n">
-        <v>144375</v>
+        <v>175623</v>
       </c>
       <c r="C481" t="s">
         <v>3141</v>
@@ -45079,7 +45079,7 @@
         <v>27174</v>
       </c>
       <c r="B483" t="n">
-        <v>144376</v>
+        <v>175624</v>
       </c>
       <c r="C483" t="s">
         <v>3154</v>
@@ -45136,7 +45136,7 @@
         <v>27174</v>
       </c>
       <c r="B484" t="n">
-        <v>144377</v>
+        <v>175625</v>
       </c>
       <c r="C484" t="s">
         <v>3159</v>
@@ -45207,7 +45207,7 @@
         <v>27174</v>
       </c>
       <c r="B485" t="n">
-        <v>144378</v>
+        <v>175626</v>
       </c>
       <c r="C485" t="s">
         <v>3167</v>
@@ -45349,7 +45349,7 @@
         <v>27174</v>
       </c>
       <c r="B487" t="n">
-        <v>144379</v>
+        <v>175627</v>
       </c>
       <c r="C487" t="s">
         <v>3183</v>
@@ -45420,7 +45420,7 @@
         <v>27174</v>
       </c>
       <c r="B488" t="n">
-        <v>144380</v>
+        <v>175628</v>
       </c>
       <c r="C488" t="s">
         <v>3189</v>
@@ -45495,7 +45495,7 @@
         <v>27174</v>
       </c>
       <c r="B489" t="n">
-        <v>144381</v>
+        <v>175629</v>
       </c>
       <c r="C489" t="s">
         <v>3196</v>
@@ -45570,7 +45570,7 @@
         <v>27174</v>
       </c>
       <c r="B490" t="n">
-        <v>144382</v>
+        <v>175630</v>
       </c>
       <c r="C490" t="s">
         <v>3204</v>
@@ -45641,7 +45641,7 @@
         <v>27174</v>
       </c>
       <c r="B491" t="n">
-        <v>144383</v>
+        <v>175631</v>
       </c>
       <c r="C491" t="s">
         <v>3213</v>
@@ -45712,7 +45712,7 @@
         <v>27174</v>
       </c>
       <c r="B492" t="n">
-        <v>144384</v>
+        <v>175632</v>
       </c>
       <c r="C492" t="s">
         <v>3219</v>
@@ -45783,7 +45783,7 @@
         <v>27174</v>
       </c>
       <c r="B493" t="n">
-        <v>144357</v>
+        <v>144251</v>
       </c>
       <c r="C493" t="s">
         <v>2974</v>
@@ -45854,7 +45854,7 @@
         <v>27174</v>
       </c>
       <c r="B494" t="n">
-        <v>144385</v>
+        <v>175633</v>
       </c>
       <c r="C494" t="s">
         <v>3229</v>
@@ -45921,7 +45921,7 @@
         <v>27174</v>
       </c>
       <c r="B495" t="n">
-        <v>144386</v>
+        <v>175634</v>
       </c>
       <c r="C495" t="s">
         <v>3235</v>
@@ -45996,7 +45996,7 @@
         <v>27174</v>
       </c>
       <c r="B496" t="n">
-        <v>144387</v>
+        <v>175635</v>
       </c>
       <c r="C496" t="s">
         <v>3245</v>
@@ -46071,7 +46071,7 @@
         <v>27174</v>
       </c>
       <c r="B497" t="n">
-        <v>144388</v>
+        <v>175636</v>
       </c>
       <c r="C497" t="s">
         <v>3252</v>
@@ -46142,7 +46142,7 @@
         <v>27174</v>
       </c>
       <c r="B498" t="n">
-        <v>144389</v>
+        <v>175637</v>
       </c>
       <c r="C498" t="s">
         <v>3261</v>
@@ -46217,7 +46217,7 @@
         <v>27174</v>
       </c>
       <c r="B499" t="n">
-        <v>144390</v>
+        <v>175638</v>
       </c>
       <c r="C499" t="s">
         <v>3271</v>
@@ -46292,7 +46292,7 @@
         <v>27174</v>
       </c>
       <c r="B500" t="n">
-        <v>144391</v>
+        <v>175639</v>
       </c>
       <c r="C500" t="s">
         <v>3281</v>
@@ -46361,7 +46361,7 @@
         <v>27174</v>
       </c>
       <c r="B501" t="n">
-        <v>144392</v>
+        <v>175640</v>
       </c>
       <c r="C501" t="s">
         <v>3288</v>
@@ -46432,7 +46432,7 @@
         <v>27174</v>
       </c>
       <c r="B502" t="n">
-        <v>144393</v>
+        <v>175641</v>
       </c>
       <c r="C502" t="s">
         <v>3295</v>
@@ -46582,7 +46582,7 @@
         <v>27174</v>
       </c>
       <c r="B504" t="n">
-        <v>144394</v>
+        <v>175642</v>
       </c>
       <c r="C504" t="s">
         <v>3314</v>
@@ -46720,7 +46720,7 @@
         <v>27174</v>
       </c>
       <c r="B506" t="n">
-        <v>144395</v>
+        <v>175643</v>
       </c>
       <c r="C506" t="s">
         <v>3327</v>
@@ -46791,7 +46791,7 @@
         <v>27174</v>
       </c>
       <c r="B507" t="n">
-        <v>144396</v>
+        <v>175644</v>
       </c>
       <c r="C507" t="s">
         <v>3333</v>
@@ -46862,7 +46862,7 @@
         <v>27174</v>
       </c>
       <c r="B508" t="n">
-        <v>144397</v>
+        <v>175645</v>
       </c>
       <c r="C508" t="s">
         <v>3340</v>
@@ -46933,7 +46933,7 @@
         <v>27174</v>
       </c>
       <c r="B509" t="n">
-        <v>144398</v>
+        <v>175646</v>
       </c>
       <c r="C509" t="s">
         <v>3346</v>
@@ -47004,7 +47004,7 @@
         <v>27174</v>
       </c>
       <c r="B510" t="n">
-        <v>144399</v>
+        <v>175647</v>
       </c>
       <c r="C510" t="s">
         <v>3353</v>
@@ -47075,7 +47075,7 @@
         <v>27174</v>
       </c>
       <c r="B511" t="n">
-        <v>144400</v>
+        <v>175648</v>
       </c>
       <c r="C511" t="s">
         <v>3360</v>
@@ -47213,7 +47213,7 @@
         <v>27174</v>
       </c>
       <c r="B513" t="n">
-        <v>144401</v>
+        <v>175649</v>
       </c>
       <c r="C513" t="s">
         <v>3373</v>
@@ -47274,7 +47274,7 @@
         <v>27174</v>
       </c>
       <c r="B514" t="n">
-        <v>144402</v>
+        <v>175650</v>
       </c>
       <c r="C514" t="s">
         <v>3380</v>
@@ -47343,7 +47343,7 @@
         <v>27174</v>
       </c>
       <c r="B515" t="n">
-        <v>144403</v>
+        <v>175651</v>
       </c>
       <c r="C515" t="s">
         <v>3387</v>
@@ -47410,7 +47410,7 @@
         <v>27174</v>
       </c>
       <c r="B516" t="n">
-        <v>144404</v>
+        <v>175652</v>
       </c>
       <c r="C516" t="s">
         <v>3394</v>
@@ -47477,7 +47477,7 @@
         <v>27174</v>
       </c>
       <c r="B517" t="n">
-        <v>144405</v>
+        <v>175653</v>
       </c>
       <c r="C517" t="s">
         <v>3401</v>
@@ -47544,7 +47544,7 @@
         <v>27174</v>
       </c>
       <c r="B518" t="n">
-        <v>144406</v>
+        <v>175654</v>
       </c>
       <c r="C518" t="s">
         <v>3408</v>
@@ -47611,7 +47611,7 @@
         <v>27174</v>
       </c>
       <c r="B519" t="n">
-        <v>144407</v>
+        <v>175655</v>
       </c>
       <c r="C519" t="s">
         <v>3415</v>
@@ -47678,7 +47678,7 @@
         <v>27174</v>
       </c>
       <c r="B520" t="n">
-        <v>144408</v>
+        <v>175656</v>
       </c>
       <c r="C520" t="s">
         <v>3421</v>
@@ -47879,7 +47879,7 @@
         <v>27174</v>
       </c>
       <c r="B523" t="n">
-        <v>144409</v>
+        <v>175657</v>
       </c>
       <c r="C523" t="s">
         <v>3440</v>
@@ -48015,7 +48015,7 @@
         <v>27174</v>
       </c>
       <c r="B525" t="n">
-        <v>144410</v>
+        <v>175658</v>
       </c>
       <c r="C525" t="s">
         <v>3454</v>
@@ -48086,7 +48086,7 @@
         <v>27174</v>
       </c>
       <c r="B526" t="n">
-        <v>144411</v>
+        <v>175659</v>
       </c>
       <c r="C526" t="s">
         <v>3462</v>
@@ -48157,7 +48157,7 @@
         <v>27174</v>
       </c>
       <c r="B527" t="n">
-        <v>144412</v>
+        <v>175660</v>
       </c>
       <c r="C527" t="s">
         <v>3469</v>
@@ -48228,7 +48228,7 @@
         <v>27174</v>
       </c>
       <c r="B528" t="n">
-        <v>144413</v>
+        <v>175661</v>
       </c>
       <c r="C528" t="s">
         <v>3477</v>
@@ -48437,7 +48437,7 @@
         <v>27174</v>
       </c>
       <c r="B531" t="n">
-        <v>144414</v>
+        <v>175662</v>
       </c>
       <c r="C531" t="s">
         <v>3497</v>
@@ -48508,7 +48508,7 @@
         <v>27174</v>
       </c>
       <c r="B532" t="n">
-        <v>144415</v>
+        <v>175663</v>
       </c>
       <c r="C532" t="s">
         <v>3504</v>
@@ -48579,7 +48579,7 @@
         <v>27174</v>
       </c>
       <c r="B533" t="n">
-        <v>144416</v>
+        <v>175664</v>
       </c>
       <c r="C533" t="s">
         <v>3511</v>
@@ -48650,7 +48650,7 @@
         <v>27174</v>
       </c>
       <c r="B534" t="n">
-        <v>144417</v>
+        <v>175665</v>
       </c>
       <c r="C534" t="s">
         <v>3519</v>
@@ -48778,7 +48778,7 @@
         <v>27174</v>
       </c>
       <c r="B536" t="n">
-        <v>144418</v>
+        <v>175666</v>
       </c>
       <c r="C536" t="s">
         <v>3531</v>
@@ -48849,7 +48849,7 @@
         <v>27174</v>
       </c>
       <c r="B537" t="n">
-        <v>144419</v>
+        <v>175667</v>
       </c>
       <c r="C537" t="s">
         <v>3538</v>
@@ -48914,7 +48914,7 @@
         <v>27174</v>
       </c>
       <c r="B538" t="n">
-        <v>144420</v>
+        <v>175668</v>
       </c>
       <c r="C538" t="s">
         <v>3544</v>
@@ -48971,7 +48971,7 @@
         <v>27174</v>
       </c>
       <c r="B539" t="n">
-        <v>144421</v>
+        <v>175669</v>
       </c>
       <c r="C539" t="s">
         <v>3550</v>
@@ -49042,7 +49042,7 @@
         <v>27174</v>
       </c>
       <c r="B540" t="n">
-        <v>144422</v>
+        <v>175670</v>
       </c>
       <c r="C540" t="s">
         <v>3558</v>
@@ -49318,7 +49318,7 @@
         <v>27174</v>
       </c>
       <c r="B544" t="n">
-        <v>144423</v>
+        <v>175671</v>
       </c>
       <c r="C544" t="s">
         <v>3586</v>
@@ -49383,7 +49383,7 @@
         <v>27174</v>
       </c>
       <c r="B545" t="n">
-        <v>144424</v>
+        <v>175672</v>
       </c>
       <c r="C545" t="s">
         <v>3592</v>
@@ -49497,7 +49497,7 @@
         <v>27174</v>
       </c>
       <c r="B547" t="n">
-        <v>144425</v>
+        <v>175673</v>
       </c>
       <c r="C547" t="s">
         <v>3605</v>
